--- a/таблица с тестами.xlsx
+++ b/таблица с тестами.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="104">
   <si>
     <t>passed</t>
   </si>
@@ -454,7 +454,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -577,6 +577,24 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -685,7 +703,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -776,6 +794,27 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -785,27 +824,8 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1143,7 +1163,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1198,11 +1218,11 @@
   <sheetPr codeName="Worksheet____5" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:Z55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="11" ySplit="7" topLeftCell="L8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane xSplit="11" ySplit="7" topLeftCell="L13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="E35" sqref="E35"/>
+      <selection pane="bottomRight" activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1246,7 +1266,7 @@
       <c r="K1" s="11"/>
       <c r="L1" s="16">
         <f>COUNTIF(L$8:L$36,"failed")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M1" s="11"/>
       <c r="N1" s="16">
@@ -1291,7 +1311,7 @@
       <c r="K2" s="11"/>
       <c r="L2" s="17">
         <f>COUNTIF(L$8:L$36,"passed")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M2" s="11"/>
       <c r="N2" s="17">
@@ -1334,7 +1354,9 @@
         <v>7</v>
       </c>
       <c r="K3" s="11"/>
-      <c r="L3" s="22"/>
+      <c r="L3" s="22">
+        <v>43978</v>
+      </c>
       <c r="M3" s="11"/>
       <c r="N3" s="22"/>
       <c r="O3" s="11"/>
@@ -1418,43 +1440,43 @@
     </row>
     <row r="6" spans="1:26" ht="27" customHeight="1">
       <c r="A6" s="12"/>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="35" t="s">
+      <c r="F6" s="32"/>
+      <c r="G6" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="39" t="s">
+      <c r="H6" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="39" t="s">
+      <c r="I6" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="33"/>
+      <c r="J6" s="40"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="32" t="s">
+      <c r="L6" s="39" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="11"/>
-      <c r="N6" s="32" t="s">
+      <c r="N6" s="39" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="11"/>
-      <c r="P6" s="32"/>
+      <c r="P6" s="39"/>
       <c r="Q6" s="11"/>
-      <c r="R6" s="32"/>
+      <c r="R6" s="39"/>
       <c r="S6" s="11"/>
-      <c r="T6" s="32"/>
+      <c r="T6" s="39"/>
       <c r="U6" s="11"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -1464,29 +1486,29 @@
     </row>
     <row r="7" spans="1:26" ht="136.5" customHeight="1">
       <c r="A7" s="12"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="38"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="33"/>
       <c r="E7" s="24" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="34"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="41"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="32"/>
+      <c r="L7" s="39"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="32"/>
+      <c r="N7" s="39"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="32"/>
+      <c r="P7" s="39"/>
       <c r="Q7" s="11"/>
-      <c r="R7" s="32"/>
+      <c r="R7" s="39"/>
       <c r="S7" s="11"/>
-      <c r="T7" s="32"/>
+      <c r="T7" s="39"/>
       <c r="U7" s="11"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -1516,7 +1538,9 @@
       <c r="I8" s="21"/>
       <c r="J8" s="20"/>
       <c r="K8" s="10"/>
-      <c r="L8" s="6"/>
+      <c r="L8" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M8" s="11"/>
       <c r="N8" s="6"/>
       <c r="O8" s="11"/>
@@ -1552,7 +1576,9 @@
       <c r="I9" s="28"/>
       <c r="J9" s="20"/>
       <c r="K9" s="10"/>
-      <c r="L9" s="6"/>
+      <c r="L9" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M9" s="11"/>
       <c r="N9" s="6"/>
       <c r="O9" s="11"/>
@@ -1588,7 +1614,9 @@
       <c r="I10" s="21"/>
       <c r="J10" s="20"/>
       <c r="K10" s="10"/>
-      <c r="L10" s="6"/>
+      <c r="L10" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M10" s="11"/>
       <c r="N10" s="6"/>
       <c r="O10" s="11"/>
@@ -1624,7 +1652,9 @@
       <c r="I11" s="21"/>
       <c r="J11" s="20"/>
       <c r="K11" s="10"/>
-      <c r="L11" s="6"/>
+      <c r="L11" s="42" t="s">
+        <v>1</v>
+      </c>
       <c r="M11" s="11"/>
       <c r="N11" s="6"/>
       <c r="O11" s="11"/>
@@ -1660,7 +1690,9 @@
       <c r="I12" s="21"/>
       <c r="J12" s="20"/>
       <c r="K12" s="10"/>
-      <c r="L12" s="6"/>
+      <c r="L12" s="43" t="s">
+        <v>0</v>
+      </c>
       <c r="M12" s="11"/>
       <c r="N12" s="6"/>
       <c r="O12" s="11"/>
@@ -1696,7 +1728,9 @@
       <c r="I13" s="21"/>
       <c r="J13" s="20"/>
       <c r="K13" s="10"/>
-      <c r="L13" s="6"/>
+      <c r="L13" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M13" s="11"/>
       <c r="N13" s="6"/>
       <c r="O13" s="11"/>
@@ -1731,7 +1765,9 @@
       <c r="I14" s="21"/>
       <c r="J14" s="20"/>
       <c r="K14" s="10"/>
-      <c r="L14" s="6"/>
+      <c r="L14" s="42" t="s">
+        <v>1</v>
+      </c>
       <c r="M14" s="11"/>
       <c r="N14" s="6"/>
       <c r="O14" s="11"/>
@@ -1767,7 +1803,9 @@
       <c r="I15" s="21"/>
       <c r="J15" s="20"/>
       <c r="K15" s="10"/>
-      <c r="L15" s="6"/>
+      <c r="L15" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M15" s="11"/>
       <c r="N15" s="6"/>
       <c r="O15" s="11"/>
@@ -2996,12 +3034,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="C6:C7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="G6:G7"/>
@@ -3009,6 +3041,12 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="P6:P7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="N8:N36 T8:T36 P8:P36 R8:R36 L8:L36">
